--- a/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathalia\Documents\GitHub\CienciasSociales\fuentes\contenidos\grado08\guion07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="228">
   <si>
     <t>Asignatura</t>
   </si>
@@ -697,6 +702,12 @@
   </si>
   <si>
     <t>Actividad que permite diferenciar los procesos de Brasil y Cuba para alcanzar su independencia, de los que siguieron los demás países latinoamericanos</t>
+  </si>
+  <si>
+    <t>Asignado a Miguel Gil (16/02/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos (16/02/16)</t>
   </si>
 </sst>
 </file>
@@ -1042,6 +1053,54 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1051,6 +1110,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1058,81 +1144,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1230,7 +1241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1441,127 +1452,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U40" sqref="U40"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="31" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="39" customWidth="1"/>
     <col min="9" max="9" width="11" style="39" customWidth="1"/>
-    <col min="10" max="10" width="44.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="39" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="44.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="37.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" style="39" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" style="39" customWidth="1"/>
     <col min="18" max="18" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="3"/>
+    <col min="19" max="19" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="52" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="68"/>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="47"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="66"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1571,7 +1582,7 @@
       <c r="C3" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="6"/>
@@ -1598,7 +1609,9 @@
         <v>117</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
+      <c r="O3" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="P3" s="10" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1631,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
@@ -1628,7 +1641,7 @@
       <c r="C4" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="18" t="s">
         <v>129</v>
       </c>
@@ -1655,7 +1668,9 @@
       <c r="N4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="13"/>
+      <c r="O4" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="P4" s="13" t="s">
         <v>19</v>
       </c>
@@ -1675,7 +1690,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1685,7 +1700,7 @@
       <c r="C5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="18" t="s">
         <v>134</v>
       </c>
@@ -1712,7 +1727,9 @@
       <c r="N5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="13"/>
+      <c r="O5" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="P5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1749,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +1759,7 @@
       <c r="C6" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="18" t="s">
         <v>138</v>
       </c>
@@ -1789,7 +1806,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -1799,7 +1816,7 @@
       <c r="C7" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="18" t="s">
         <v>142</v>
       </c>
@@ -1846,7 +1863,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -1856,7 +1873,7 @@
       <c r="C8" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="60" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -1905,7 +1922,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1915,7 +1932,7 @@
       <c r="C9" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="18" t="s">
         <v>153</v>
       </c>
@@ -1962,7 +1979,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1972,7 +1989,7 @@
       <c r="C10" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="18" t="s">
         <v>156</v>
       </c>
@@ -1993,7 +2010,7 @@
       <c r="T10" s="23"/>
       <c r="U10" s="21"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
@@ -2003,7 +2020,7 @@
       <c r="C11" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="18" t="s">
         <v>157</v>
       </c>
@@ -2026,7 +2043,7 @@
       <c r="T11" s="23"/>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
@@ -2036,7 +2053,7 @@
       <c r="C12" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="18"/>
       <c r="F12" s="13" t="s">
         <v>159</v>
@@ -2083,7 +2100,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -2093,7 +2110,7 @@
       <c r="C13" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="18" t="s">
         <v>163</v>
       </c>
@@ -2114,7 +2131,7 @@
       <c r="T13" s="23"/>
       <c r="U13" s="21"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
@@ -2124,7 +2141,7 @@
       <c r="C14" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="18" t="s">
         <v>142</v>
       </c>
@@ -2171,7 +2188,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
@@ -2181,7 +2198,7 @@
       <c r="C15" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="60" t="s">
         <v>167</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -2204,7 +2221,7 @@
       <c r="T15" s="23"/>
       <c r="U15" s="21"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
@@ -2214,7 +2231,7 @@
       <c r="C16" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="18" t="s">
         <v>169</v>
       </c>
@@ -2261,7 +2278,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
@@ -2271,8 +2288,8 @@
       <c r="C17" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="50" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="58" t="s">
         <v>170</v>
       </c>
       <c r="F17" s="13"/>
@@ -2318,7 +2335,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
@@ -2328,8 +2345,8 @@
       <c r="C18" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="13"/>
       <c r="G18" s="19" t="s">
         <v>221</v>
@@ -2373,7 +2390,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
@@ -2383,7 +2400,7 @@
       <c r="C19" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="18" t="s">
         <v>142</v>
       </c>
@@ -2430,7 +2447,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
@@ -2440,7 +2457,7 @@
       <c r="C20" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="60" t="s">
         <v>176</v>
       </c>
       <c r="E20" s="18"/>
@@ -2487,7 +2504,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>18</v>
       </c>
@@ -2497,7 +2514,7 @@
       <c r="C21" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="18" t="s">
         <v>179</v>
       </c>
@@ -2518,7 +2535,7 @@
       <c r="T21" s="23"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>18</v>
       </c>
@@ -2528,7 +2545,7 @@
       <c r="C22" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="18" t="s">
         <v>180</v>
       </c>
@@ -2575,7 +2592,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
@@ -2585,7 +2602,7 @@
       <c r="C23" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="18" t="s">
         <v>184</v>
       </c>
@@ -2606,7 +2623,7 @@
       <c r="T23" s="23"/>
       <c r="U23" s="21"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>18</v>
       </c>
@@ -2616,7 +2633,7 @@
       <c r="C24" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="18" t="s">
         <v>185</v>
       </c>
@@ -2663,7 +2680,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
@@ -2673,7 +2690,7 @@
       <c r="C25" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="18" t="s">
         <v>142</v>
       </c>
@@ -2720,7 +2737,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>18</v>
       </c>
@@ -2730,7 +2747,7 @@
       <c r="C26" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="60" t="s">
         <v>192</v>
       </c>
       <c r="E26" s="18" t="s">
@@ -2753,7 +2770,7 @@
       <c r="T26" s="23"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -2763,7 +2780,7 @@
       <c r="C27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="18" t="s">
         <v>224</v>
       </c>
@@ -2784,7 +2801,7 @@
       <c r="T27" s="23"/>
       <c r="U27" s="21"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>18</v>
       </c>
@@ -2794,7 +2811,7 @@
       <c r="C28" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="18" t="s">
         <v>194</v>
       </c>
@@ -2815,7 +2832,7 @@
       <c r="T28" s="23"/>
       <c r="U28" s="21"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>18</v>
       </c>
@@ -2825,7 +2842,7 @@
       <c r="C29" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="18" t="s">
         <v>142</v>
       </c>
@@ -2872,7 +2889,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>18</v>
       </c>
@@ -2882,7 +2899,7 @@
       <c r="C30" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="60" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="18"/>
@@ -2929,7 +2946,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>18</v>
       </c>
@@ -2939,7 +2956,7 @@
       <c r="C31" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="18"/>
       <c r="F31" s="13"/>
       <c r="G31" s="19" t="s">
@@ -2984,7 +3001,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>18</v>
       </c>
@@ -2994,7 +3011,7 @@
       <c r="C32" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="60" t="s">
         <v>204</v>
       </c>
       <c r="E32" s="18"/>
@@ -3029,7 +3046,7 @@
       <c r="T32" s="23"/>
       <c r="U32" s="21"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>18</v>
       </c>
@@ -3039,7 +3056,7 @@
       <c r="C33" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="18"/>
       <c r="F33" s="13"/>
       <c r="G33" s="19" t="s">
@@ -3084,7 +3101,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>18</v>
       </c>
@@ -3094,7 +3111,7 @@
       <c r="C34" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="46"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="18"/>
       <c r="F34" s="13"/>
       <c r="G34" s="19" t="s">
@@ -3137,7 +3154,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="6"/>
       <c r="C35" s="41"/>
@@ -3160,7 +3177,7 @@
       <c r="T35" s="23"/>
       <c r="U35" s="21"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="18"/>
       <c r="C36" s="25"/>
@@ -3183,7 +3200,7 @@
       <c r="T36" s="23"/>
       <c r="U36" s="21"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="18"/>
       <c r="C37" s="25"/>
@@ -3206,7 +3223,7 @@
       <c r="T37" s="23"/>
       <c r="U37" s="21"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="18"/>
       <c r="C38" s="25"/>
@@ -3229,7 +3246,7 @@
       <c r="T38" s="23"/>
       <c r="U38" s="21"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="18"/>
       <c r="C39" s="25"/>
@@ -3252,7 +3269,7 @@
       <c r="T39" s="23"/>
       <c r="U39" s="21"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="18"/>
       <c r="C40" s="25"/>
@@ -3275,7 +3292,7 @@
       <c r="T40" s="23"/>
       <c r="U40" s="21"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="18"/>
       <c r="C41" s="25"/>
@@ -3298,7 +3315,7 @@
       <c r="T41" s="23"/>
       <c r="U41" s="21"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="18"/>
       <c r="C42" s="25"/>
@@ -3321,7 +3338,7 @@
       <c r="T42" s="23"/>
       <c r="U42" s="21"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="18"/>
       <c r="C43" s="25"/>
@@ -3344,7 +3361,7 @@
       <c r="T43" s="23"/>
       <c r="U43" s="21"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="18"/>
       <c r="C44" s="25"/>
@@ -3367,7 +3384,7 @@
       <c r="T44" s="23"/>
       <c r="U44" s="21"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="18"/>
       <c r="C45" s="25"/>
@@ -3390,7 +3407,7 @@
       <c r="T45" s="23"/>
       <c r="U45" s="21"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="18"/>
       <c r="C46" s="25"/>
@@ -3413,7 +3430,7 @@
       <c r="T46" s="23"/>
       <c r="U46" s="21"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="26"/>
       <c r="C47" s="27"/>
@@ -3436,7 +3453,7 @@
       <c r="T47" s="38"/>
       <c r="U47" s="36"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="26"/>
       <c r="C48" s="27"/>
@@ -3459,7 +3476,7 @@
       <c r="T48" s="38"/>
       <c r="U48" s="36"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
@@ -3482,7 +3499,7 @@
       <c r="T49" s="38"/>
       <c r="U49" s="36"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="26"/>
       <c r="C50" s="27"/>
@@ -3505,7 +3522,7 @@
       <c r="T50" s="38"/>
       <c r="U50" s="36"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="26"/>
       <c r="C51" s="27"/>
@@ -3528,7 +3545,7 @@
       <c r="T51" s="38"/>
       <c r="U51" s="36"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="26"/>
       <c r="C52" s="27"/>
@@ -3551,7 +3568,7 @@
       <c r="T52" s="38"/>
       <c r="U52" s="36"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
@@ -3574,7 +3591,7 @@
       <c r="T53" s="38"/>
       <c r="U53" s="36"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="26"/>
       <c r="C54" s="27"/>
@@ -3597,7 +3614,7 @@
       <c r="T54" s="38"/>
       <c r="U54" s="36"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
       <c r="B55" s="26"/>
       <c r="C55" s="27"/>
@@ -3620,7 +3637,7 @@
       <c r="T55" s="38"/>
       <c r="U55" s="36"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="26"/>
       <c r="C56" s="27"/>
@@ -3643,7 +3660,7 @@
       <c r="T56" s="38"/>
       <c r="U56" s="36"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="26"/>
       <c r="C57" s="27"/>
@@ -3666,7 +3683,7 @@
       <c r="T57" s="38"/>
       <c r="U57" s="36"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="26"/>
       <c r="C58" s="27"/>
@@ -3689,7 +3706,7 @@
       <c r="T58" s="38"/>
       <c r="U58" s="36"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
       <c r="B59" s="26"/>
       <c r="C59" s="27"/>
@@ -3712,7 +3729,7 @@
       <c r="T59" s="38"/>
       <c r="U59" s="36"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
       <c r="B60" s="26"/>
       <c r="C60" s="27"/>
@@ -3735,7 +3752,7 @@
       <c r="T60" s="38"/>
       <c r="U60" s="36"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
       <c r="B61" s="26"/>
       <c r="C61" s="27"/>
@@ -3758,7 +3775,7 @@
       <c r="T61" s="38"/>
       <c r="U61" s="36"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
       <c r="B62" s="26"/>
       <c r="C62" s="27"/>
@@ -3781,7 +3798,7 @@
       <c r="T62" s="38"/>
       <c r="U62" s="36"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
       <c r="B63" s="26"/>
       <c r="C63" s="27"/>
@@ -3804,7 +3821,7 @@
       <c r="T63" s="38"/>
       <c r="U63" s="36"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
       <c r="B64" s="26"/>
       <c r="C64" s="27"/>
@@ -3827,7 +3844,7 @@
       <c r="T64" s="38"/>
       <c r="U64" s="36"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="B65" s="26"/>
       <c r="C65" s="27"/>
@@ -3850,7 +3867,7 @@
       <c r="T65" s="38"/>
       <c r="U65" s="36"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
       <c r="B66" s="26"/>
       <c r="C66" s="27"/>
@@ -3873,7 +3890,7 @@
       <c r="T66" s="38"/>
       <c r="U66" s="36"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
       <c r="B67" s="26"/>
       <c r="C67" s="27"/>
@@ -3896,7 +3913,7 @@
       <c r="T67" s="38"/>
       <c r="U67" s="36"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="26"/>
       <c r="C68" s="27"/>
@@ -3919,7 +3936,7 @@
       <c r="T68" s="38"/>
       <c r="U68" s="36"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="12"/>
       <c r="B69" s="26"/>
       <c r="C69" s="27"/>
@@ -3942,7 +3959,7 @@
       <c r="T69" s="38"/>
       <c r="U69" s="36"/>
     </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
       <c r="B70" s="26"/>
       <c r="C70" s="27"/>
@@ -3965,203 +3982,198 @@
       <c r="T70" s="38"/>
       <c r="U70" s="36"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="D20:D25"/>
@@ -4175,11 +4187,16 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4230,27 +4247,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4267,7 +4284,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4291,7 +4308,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4310,7 +4327,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4329,7 +4346,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4345,7 +4362,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4362,7 +4379,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4379,7 +4396,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4394,7 +4411,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4409,7 +4426,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4424,7 +4441,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4439,7 +4456,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4454,7 +4471,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4469,7 +4486,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4484,7 +4501,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4499,7 +4516,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4514,7 +4531,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -4528,7 +4545,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -4542,7 +4559,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -4556,7 +4573,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -4570,7 +4587,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4585,7 +4602,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4600,7 +4617,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4615,7 +4632,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4630,7 +4647,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4645,7 +4662,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4660,7 +4677,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4675,7 +4692,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4690,7 +4707,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4705,7 +4722,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4720,7 +4737,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4735,7 +4752,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4750,7 +4767,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4765,7 +4782,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4780,7 +4797,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4795,7 +4812,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4810,7 +4827,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4825,7 +4842,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4840,7 +4857,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4855,7 +4872,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4870,7 +4887,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4885,7 +4902,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -4900,7 +4917,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4915,7 +4932,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -4930,7 +4947,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -4945,7 +4962,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -4960,7 +4977,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -4975,7 +4992,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -4990,7 +5007,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5002,7 +5019,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5014,7 +5031,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5027,7 +5044,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5040,7 +5057,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5053,7 +5070,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5066,7 +5083,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5079,7 +5096,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5092,7 +5109,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5105,7 +5122,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5118,7 +5135,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5131,7 +5148,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5144,7 +5161,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5157,7 +5174,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5170,7 +5187,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5183,7 +5200,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5196,7 +5213,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5209,7 +5226,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5222,7 +5239,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5235,7 +5252,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5248,7 +5265,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5261,7 +5278,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5274,7 +5291,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5288,7 +5305,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5302,7 +5319,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5316,7 +5333,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5330,7 +5347,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5344,7 +5361,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5358,7 +5375,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5372,7 +5389,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5386,7 +5403,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5400,7 +5417,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5414,7 +5431,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5428,7 +5445,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5442,7 +5459,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5456,7 +5473,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5470,7 +5487,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5484,7 +5501,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5498,7 +5515,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5512,7 +5529,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5526,7 +5543,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5540,7 +5557,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5554,7 +5571,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5568,7 +5585,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5582,7 +5599,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5596,7 +5613,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5610,7 +5627,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5624,7 +5641,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5638,7 +5655,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5652,7 +5669,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5666,7 +5683,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5680,7 +5697,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5694,7 +5711,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5708,7 +5725,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5722,7 +5739,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5736,7 +5753,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5750,7 +5767,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5764,7 +5781,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5778,7 +5795,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5792,7 +5809,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5806,7 +5823,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5820,7 +5837,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5834,7 +5851,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5848,7 +5865,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5862,7 +5879,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5876,7 +5893,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5890,7 +5907,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5904,7 +5921,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5918,7 +5935,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5932,7 +5949,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5946,7 +5963,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5960,7 +5977,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5974,7 +5991,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5988,7 +6005,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6002,7 +6019,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6016,7 +6033,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6030,7 +6047,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6044,7 +6061,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6058,7 +6075,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6072,7 +6089,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6086,7 +6103,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6100,7 +6117,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6114,7 +6131,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6128,7 +6145,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6142,7 +6159,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="232">
   <si>
     <t>Asignatura</t>
   </si>
@@ -708,6 +708,18 @@
   </si>
   <si>
     <t>Asignado a Ana Hoyos (16/02/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos (19/02/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Miguel Gil (19/02/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos (22/02/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Miguel Gil (22/02/16)</t>
   </si>
 </sst>
 </file>
@@ -1053,6 +1065,63 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1087,63 +1156,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1452,9 +1464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1483,94 +1495,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="63" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="54" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="66"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1582,7 +1594,7 @@
       <c r="C3" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="47" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="6"/>
@@ -1641,7 +1653,7 @@
       <c r="C4" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="18" t="s">
         <v>129</v>
       </c>
@@ -1700,7 +1712,7 @@
       <c r="C5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="18" t="s">
         <v>134</v>
       </c>
@@ -1759,7 +1771,7 @@
       <c r="C6" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="18" t="s">
         <v>138</v>
       </c>
@@ -1786,7 +1798,9 @@
       <c r="N6" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="O6" s="13"/>
+      <c r="O6" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="P6" s="13" t="s">
         <v>19</v>
       </c>
@@ -1816,7 +1830,7 @@
       <c r="C7" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="18" t="s">
         <v>142</v>
       </c>
@@ -1873,7 +1887,7 @@
       <c r="C8" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="44" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -1902,7 +1916,9 @@
         <v>54</v>
       </c>
       <c r="N8" s="17"/>
-      <c r="O8" s="13"/>
+      <c r="O8" s="13" t="s">
+        <v>229</v>
+      </c>
       <c r="P8" s="13" t="s">
         <v>19</v>
       </c>
@@ -1932,7 +1948,7 @@
       <c r="C9" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="18" t="s">
         <v>153</v>
       </c>
@@ -1959,7 +1975,9 @@
       <c r="N9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="13"/>
+      <c r="O9" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="P9" s="13" t="s">
         <v>19</v>
       </c>
@@ -1989,7 +2007,7 @@
       <c r="C10" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="18" t="s">
         <v>156</v>
       </c>
@@ -2020,7 +2038,7 @@
       <c r="C11" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="18" t="s">
         <v>157</v>
       </c>
@@ -2053,7 +2071,7 @@
       <c r="C12" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="18"/>
       <c r="F12" s="13" t="s">
         <v>159</v>
@@ -2080,7 +2098,9 @@
       <c r="N12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="13"/>
+      <c r="O12" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="P12" s="13" t="s">
         <v>19</v>
       </c>
@@ -2110,7 +2130,7 @@
       <c r="C13" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="18" t="s">
         <v>163</v>
       </c>
@@ -2141,7 +2161,7 @@
       <c r="C14" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="18" t="s">
         <v>142</v>
       </c>
@@ -2198,7 +2218,7 @@
       <c r="C15" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="44" t="s">
         <v>167</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -2231,7 +2251,7 @@
       <c r="C16" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="18" t="s">
         <v>169</v>
       </c>
@@ -2258,7 +2278,9 @@
       <c r="N16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="13"/>
+      <c r="O16" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="P16" s="13" t="s">
         <v>19</v>
       </c>
@@ -2288,8 +2310,8 @@
       <c r="C17" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="58" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="50" t="s">
         <v>170</v>
       </c>
       <c r="F17" s="13"/>
@@ -2315,7 +2337,9 @@
         <v>62</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="13"/>
+      <c r="O17" s="13" t="s">
+        <v>231</v>
+      </c>
       <c r="P17" s="13" t="s">
         <v>19</v>
       </c>
@@ -2345,8 +2369,8 @@
       <c r="C18" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="13"/>
       <c r="G18" s="19" t="s">
         <v>221</v>
@@ -2400,7 +2424,7 @@
       <c r="C19" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="62"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="18" t="s">
         <v>142</v>
       </c>
@@ -2457,7 +2481,7 @@
       <c r="C20" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="44" t="s">
         <v>176</v>
       </c>
       <c r="E20" s="18"/>
@@ -2514,7 +2538,7 @@
       <c r="C21" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="18" t="s">
         <v>179</v>
       </c>
@@ -2545,7 +2569,7 @@
       <c r="C22" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="61"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="18" t="s">
         <v>180</v>
       </c>
@@ -2602,7 +2626,7 @@
       <c r="C23" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="18" t="s">
         <v>184</v>
       </c>
@@ -2633,7 +2657,7 @@
       <c r="C24" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="18" t="s">
         <v>185</v>
       </c>
@@ -2690,7 +2714,7 @@
       <c r="C25" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="62"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="18" t="s">
         <v>142</v>
       </c>
@@ -2747,7 +2771,7 @@
       <c r="C26" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E26" s="18" t="s">
@@ -2780,7 +2804,7 @@
       <c r="C27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="18" t="s">
         <v>224</v>
       </c>
@@ -2811,7 +2835,7 @@
       <c r="C28" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="61"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="18" t="s">
         <v>194</v>
       </c>
@@ -2842,7 +2866,7 @@
       <c r="C29" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="62"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="18" t="s">
         <v>142</v>
       </c>
@@ -2899,7 +2923,7 @@
       <c r="C30" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="44" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="18"/>
@@ -2956,7 +2980,7 @@
       <c r="C31" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="18"/>
       <c r="F31" s="13"/>
       <c r="G31" s="19" t="s">
@@ -3011,7 +3035,7 @@
       <c r="C32" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="44" t="s">
         <v>204</v>
       </c>
       <c r="E32" s="18"/>
@@ -3056,7 +3080,7 @@
       <c r="C33" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="61"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="18"/>
       <c r="F33" s="13"/>
       <c r="G33" s="19" t="s">
@@ -3111,7 +3135,7 @@
       <c r="C34" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="62"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="18"/>
       <c r="F34" s="13"/>
       <c r="G34" s="19" t="s">
@@ -4169,11 +4193,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="D20:D25"/>
@@ -4187,16 +4216,11 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="234">
   <si>
     <t>Asignatura</t>
   </si>
@@ -720,6 +720,12 @@
   </si>
   <si>
     <t>Asignado a Miguel Gil (22/02/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos (26/02/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Miguel Gil (26/02/16)</t>
   </si>
 </sst>
 </file>
@@ -1065,6 +1071,54 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1074,6 +1128,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1081,81 +1162,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1465,8 +1471,8 @@
   <dimension ref="A1:U121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1495,94 +1501,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="52" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="65" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="66"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="68"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="66"/>
     </row>
     <row r="3" spans="1:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1594,7 +1600,7 @@
       <c r="C3" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="6"/>
@@ -1653,7 +1659,7 @@
       <c r="C4" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="18" t="s">
         <v>129</v>
       </c>
@@ -1712,7 +1718,7 @@
       <c r="C5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="18" t="s">
         <v>134</v>
       </c>
@@ -1771,7 +1777,7 @@
       <c r="C6" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="18" t="s">
         <v>138</v>
       </c>
@@ -1830,7 +1836,7 @@
       <c r="C7" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="18" t="s">
         <v>142</v>
       </c>
@@ -1887,7 +1893,7 @@
       <c r="C8" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="60" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -1948,7 +1954,7 @@
       <c r="C9" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="18" t="s">
         <v>153</v>
       </c>
@@ -2007,7 +2013,7 @@
       <c r="C10" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="18" t="s">
         <v>156</v>
       </c>
@@ -2038,7 +2044,7 @@
       <c r="C11" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="18" t="s">
         <v>157</v>
       </c>
@@ -2071,7 +2077,7 @@
       <c r="C12" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="18"/>
       <c r="F12" s="13" t="s">
         <v>159</v>
@@ -2130,7 +2136,7 @@
       <c r="C13" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="18" t="s">
         <v>163</v>
       </c>
@@ -2161,7 +2167,7 @@
       <c r="C14" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="18" t="s">
         <v>142</v>
       </c>
@@ -2218,7 +2224,7 @@
       <c r="C15" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="60" t="s">
         <v>167</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -2251,7 +2257,7 @@
       <c r="C16" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="18" t="s">
         <v>169</v>
       </c>
@@ -2310,8 +2316,8 @@
       <c r="C17" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="50" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="58" t="s">
         <v>170</v>
       </c>
       <c r="F17" s="13"/>
@@ -2369,8 +2375,8 @@
       <c r="C18" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="13"/>
       <c r="G18" s="19" t="s">
         <v>221</v>
@@ -2394,7 +2400,9 @@
       <c r="N18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="O18" s="13"/>
+      <c r="O18" s="13" t="s">
+        <v>232</v>
+      </c>
       <c r="P18" s="13" t="s">
         <v>19</v>
       </c>
@@ -2424,7 +2432,7 @@
       <c r="C19" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="18" t="s">
         <v>142</v>
       </c>
@@ -2481,7 +2489,7 @@
       <c r="C20" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="60" t="s">
         <v>176</v>
       </c>
       <c r="E20" s="18"/>
@@ -2508,7 +2516,9 @@
         <v>117</v>
       </c>
       <c r="N20" s="17"/>
-      <c r="O20" s="13"/>
+      <c r="O20" s="13" t="s">
+        <v>233</v>
+      </c>
       <c r="P20" s="13" t="s">
         <v>19</v>
       </c>
@@ -2538,7 +2548,7 @@
       <c r="C21" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="18" t="s">
         <v>179</v>
       </c>
@@ -2569,7 +2579,7 @@
       <c r="C22" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="18" t="s">
         <v>180</v>
       </c>
@@ -2596,7 +2606,9 @@
       <c r="N22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="13"/>
+      <c r="O22" s="13" t="s">
+        <v>232</v>
+      </c>
       <c r="P22" s="13" t="s">
         <v>19</v>
       </c>
@@ -2626,7 +2638,7 @@
       <c r="C23" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="18" t="s">
         <v>184</v>
       </c>
@@ -2657,7 +2669,7 @@
       <c r="C24" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="18" t="s">
         <v>185</v>
       </c>
@@ -2714,7 +2726,7 @@
       <c r="C25" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="18" t="s">
         <v>142</v>
       </c>
@@ -2771,7 +2783,7 @@
       <c r="C26" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="60" t="s">
         <v>192</v>
       </c>
       <c r="E26" s="18" t="s">
@@ -2804,7 +2816,7 @@
       <c r="C27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="18" t="s">
         <v>224</v>
       </c>
@@ -2835,7 +2847,7 @@
       <c r="C28" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="18" t="s">
         <v>194</v>
       </c>
@@ -2866,7 +2878,7 @@
       <c r="C29" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="18" t="s">
         <v>142</v>
       </c>
@@ -2923,7 +2935,7 @@
       <c r="C30" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="60" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="18"/>
@@ -2980,7 +2992,7 @@
       <c r="C31" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="18"/>
       <c r="F31" s="13"/>
       <c r="G31" s="19" t="s">
@@ -3035,7 +3047,7 @@
       <c r="C32" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="60" t="s">
         <v>204</v>
       </c>
       <c r="E32" s="18"/>
@@ -3080,7 +3092,7 @@
       <c r="C33" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="18"/>
       <c r="F33" s="13"/>
       <c r="G33" s="19" t="s">
@@ -3135,7 +3147,7 @@
       <c r="C34" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="46"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="18"/>
       <c r="F34" s="13"/>
       <c r="G34" s="19" t="s">
@@ -4193,16 +4205,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="D20:D25"/>
@@ -4216,11 +4223,16 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="236">
   <si>
     <t>Asignatura</t>
   </si>
@@ -726,6 +726,12 @@
   </si>
   <si>
     <t>Asignado a Miguel Gil (26/02/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos (29/02/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Miguel Gil (29/02/16)</t>
   </si>
 </sst>
 </file>
@@ -1071,6 +1077,63 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1105,63 +1168,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1470,9 +1476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1501,94 +1507,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="63" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="54" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="66"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1600,7 +1606,7 @@
       <c r="C3" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="47" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="6"/>
@@ -1659,7 +1665,7 @@
       <c r="C4" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="18" t="s">
         <v>129</v>
       </c>
@@ -1718,7 +1724,7 @@
       <c r="C5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="18" t="s">
         <v>134</v>
       </c>
@@ -1777,7 +1783,7 @@
       <c r="C6" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="18" t="s">
         <v>138</v>
       </c>
@@ -1836,7 +1842,7 @@
       <c r="C7" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="18" t="s">
         <v>142</v>
       </c>
@@ -1893,7 +1899,7 @@
       <c r="C8" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="44" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -1954,7 +1960,7 @@
       <c r="C9" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="18" t="s">
         <v>153</v>
       </c>
@@ -2013,7 +2019,7 @@
       <c r="C10" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="18" t="s">
         <v>156</v>
       </c>
@@ -2044,7 +2050,7 @@
       <c r="C11" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="18" t="s">
         <v>157</v>
       </c>
@@ -2077,7 +2083,7 @@
       <c r="C12" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="18"/>
       <c r="F12" s="13" t="s">
         <v>159</v>
@@ -2136,7 +2142,7 @@
       <c r="C13" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="18" t="s">
         <v>163</v>
       </c>
@@ -2167,7 +2173,7 @@
       <c r="C14" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="18" t="s">
         <v>142</v>
       </c>
@@ -2224,7 +2230,7 @@
       <c r="C15" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="44" t="s">
         <v>167</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -2257,7 +2263,7 @@
       <c r="C16" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="18" t="s">
         <v>169</v>
       </c>
@@ -2316,8 +2322,8 @@
       <c r="C17" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="58" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="50" t="s">
         <v>170</v>
       </c>
       <c r="F17" s="13"/>
@@ -2375,8 +2381,8 @@
       <c r="C18" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="13"/>
       <c r="G18" s="19" t="s">
         <v>221</v>
@@ -2432,7 +2438,7 @@
       <c r="C19" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="62"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="18" t="s">
         <v>142</v>
       </c>
@@ -2489,7 +2495,7 @@
       <c r="C20" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="44" t="s">
         <v>176</v>
       </c>
       <c r="E20" s="18"/>
@@ -2548,7 +2554,7 @@
       <c r="C21" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="18" t="s">
         <v>179</v>
       </c>
@@ -2579,7 +2585,7 @@
       <c r="C22" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="61"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="18" t="s">
         <v>180</v>
       </c>
@@ -2638,7 +2644,7 @@
       <c r="C23" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="18" t="s">
         <v>184</v>
       </c>
@@ -2669,7 +2675,7 @@
       <c r="C24" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="18" t="s">
         <v>185</v>
       </c>
@@ -2696,7 +2702,9 @@
       <c r="N24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O24" s="13"/>
+      <c r="O24" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="P24" s="13" t="s">
         <v>19</v>
       </c>
@@ -2726,7 +2734,7 @@
       <c r="C25" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="62"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="18" t="s">
         <v>142</v>
       </c>
@@ -2783,7 +2791,7 @@
       <c r="C26" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E26" s="18" t="s">
@@ -2816,7 +2824,7 @@
       <c r="C27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="18" t="s">
         <v>224</v>
       </c>
@@ -2847,7 +2855,7 @@
       <c r="C28" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="61"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="18" t="s">
         <v>194</v>
       </c>
@@ -2878,7 +2886,7 @@
       <c r="C29" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="62"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="18" t="s">
         <v>142</v>
       </c>
@@ -2935,7 +2943,7 @@
       <c r="C30" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="44" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="18"/>
@@ -2962,7 +2970,9 @@
         <v>63</v>
       </c>
       <c r="N30" s="17"/>
-      <c r="O30" s="13"/>
+      <c r="O30" s="13" t="s">
+        <v>235</v>
+      </c>
       <c r="P30" s="13" t="s">
         <v>19</v>
       </c>
@@ -2992,7 +3002,7 @@
       <c r="C31" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="18"/>
       <c r="F31" s="13"/>
       <c r="G31" s="19" t="s">
@@ -3047,7 +3057,7 @@
       <c r="C32" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="44" t="s">
         <v>204</v>
       </c>
       <c r="E32" s="18"/>
@@ -3092,7 +3102,7 @@
       <c r="C33" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="61"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="18"/>
       <c r="F33" s="13"/>
       <c r="G33" s="19" t="s">
@@ -3117,7 +3127,9 @@
       <c r="N33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="13"/>
+      <c r="O33" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="P33" s="13" t="s">
         <v>19</v>
       </c>
@@ -3147,7 +3159,7 @@
       <c r="C34" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="62"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="18"/>
       <c r="F34" s="13"/>
       <c r="G34" s="19" t="s">
@@ -4205,11 +4217,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="D20:D25"/>
@@ -4223,16 +4240,11 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="238">
   <si>
     <t>Asignatura</t>
   </si>
@@ -732,6 +732,12 @@
   </si>
   <si>
     <t>Asignado a Miguel Gil (29/02/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Miguel Gil (02/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos (02/03/16)</t>
   </si>
 </sst>
 </file>
@@ -1077,6 +1083,54 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1086,6 +1140,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1093,81 +1174,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1476,9 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,94 +1513,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="52" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="65" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="66"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="68"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="66"/>
     </row>
     <row r="3" spans="1:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1606,7 +1612,7 @@
       <c r="C3" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="6"/>
@@ -1665,7 +1671,7 @@
       <c r="C4" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="18" t="s">
         <v>129</v>
       </c>
@@ -1724,7 +1730,7 @@
       <c r="C5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="18" t="s">
         <v>134</v>
       </c>
@@ -1783,7 +1789,7 @@
       <c r="C6" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="18" t="s">
         <v>138</v>
       </c>
@@ -1842,7 +1848,7 @@
       <c r="C7" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="18" t="s">
         <v>142</v>
       </c>
@@ -1869,7 +1875,9 @@
       <c r="N7" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="13"/>
+      <c r="O7" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="P7" s="13" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1907,7 @@
       <c r="C8" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="60" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -1960,7 +1968,7 @@
       <c r="C9" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="18" t="s">
         <v>153</v>
       </c>
@@ -2019,7 +2027,7 @@
       <c r="C10" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="18" t="s">
         <v>156</v>
       </c>
@@ -2050,7 +2058,7 @@
       <c r="C11" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="18" t="s">
         <v>157</v>
       </c>
@@ -2083,7 +2091,7 @@
       <c r="C12" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="18"/>
       <c r="F12" s="13" t="s">
         <v>159</v>
@@ -2142,7 +2150,7 @@
       <c r="C13" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="18" t="s">
         <v>163</v>
       </c>
@@ -2173,7 +2181,7 @@
       <c r="C14" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="18" t="s">
         <v>142</v>
       </c>
@@ -2200,7 +2208,9 @@
       <c r="N14" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="O14" s="13"/>
+      <c r="O14" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="P14" s="13" t="s">
         <v>19</v>
       </c>
@@ -2230,7 +2240,7 @@
       <c r="C15" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="60" t="s">
         <v>167</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -2263,7 +2273,7 @@
       <c r="C16" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="18" t="s">
         <v>169</v>
       </c>
@@ -2322,8 +2332,8 @@
       <c r="C17" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="50" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="58" t="s">
         <v>170</v>
       </c>
       <c r="F17" s="13"/>
@@ -2381,8 +2391,8 @@
       <c r="C18" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="13"/>
       <c r="G18" s="19" t="s">
         <v>221</v>
@@ -2438,7 +2448,7 @@
       <c r="C19" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="18" t="s">
         <v>142</v>
       </c>
@@ -2465,7 +2475,9 @@
       <c r="N19" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="13"/>
+      <c r="O19" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="P19" s="13" t="s">
         <v>19</v>
       </c>
@@ -2495,7 +2507,7 @@
       <c r="C20" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="60" t="s">
         <v>176</v>
       </c>
       <c r="E20" s="18"/>
@@ -2554,7 +2566,7 @@
       <c r="C21" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="18" t="s">
         <v>179</v>
       </c>
@@ -2585,7 +2597,7 @@
       <c r="C22" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="18" t="s">
         <v>180</v>
       </c>
@@ -2644,7 +2656,7 @@
       <c r="C23" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="18" t="s">
         <v>184</v>
       </c>
@@ -2675,7 +2687,7 @@
       <c r="C24" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="18" t="s">
         <v>185</v>
       </c>
@@ -2734,7 +2746,7 @@
       <c r="C25" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="18" t="s">
         <v>142</v>
       </c>
@@ -2761,7 +2773,9 @@
       <c r="N25" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="O25" s="13"/>
+      <c r="O25" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="P25" s="13" t="s">
         <v>19</v>
       </c>
@@ -2791,7 +2805,7 @@
       <c r="C26" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="60" t="s">
         <v>192</v>
       </c>
       <c r="E26" s="18" t="s">
@@ -2824,7 +2838,7 @@
       <c r="C27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="18" t="s">
         <v>224</v>
       </c>
@@ -2855,7 +2869,7 @@
       <c r="C28" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="18" t="s">
         <v>194</v>
       </c>
@@ -2886,7 +2900,7 @@
       <c r="C29" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="18" t="s">
         <v>142</v>
       </c>
@@ -2913,7 +2927,9 @@
       <c r="N29" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="O29" s="13"/>
+      <c r="O29" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="P29" s="13" t="s">
         <v>19</v>
       </c>
@@ -2943,7 +2959,7 @@
       <c r="C30" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="60" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="18"/>
@@ -3002,7 +3018,7 @@
       <c r="C31" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="18"/>
       <c r="F31" s="13"/>
       <c r="G31" s="19" t="s">
@@ -3027,7 +3043,9 @@
       <c r="N31" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="O31" s="13"/>
+      <c r="O31" s="13" t="s">
+        <v>236</v>
+      </c>
       <c r="P31" s="13" t="s">
         <v>19</v>
       </c>
@@ -3057,7 +3075,7 @@
       <c r="C32" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="60" t="s">
         <v>204</v>
       </c>
       <c r="E32" s="18"/>
@@ -3102,7 +3120,7 @@
       <c r="C33" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="18"/>
       <c r="F33" s="13"/>
       <c r="G33" s="19" t="s">
@@ -3159,7 +3177,7 @@
       <c r="C34" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="46"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="18"/>
       <c r="F34" s="13"/>
       <c r="G34" s="19" t="s">
@@ -4217,16 +4235,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="D20:D25"/>
@@ -4240,11 +4253,16 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion07/CS_08_07_CO_Escaleta.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$284</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1083,6 +1083,63 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1117,63 +1174,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1513,94 +1513,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="63" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="54" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="40" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="66"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1612,7 +1612,7 @@
       <c r="C3" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="47" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="6"/>
@@ -1671,7 +1671,7 @@
       <c r="C4" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="18" t="s">
         <v>129</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="C5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="18" t="s">
         <v>134</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="C6" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="18" t="s">
         <v>138</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C7" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="18" t="s">
         <v>142</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="C8" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="44" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -1968,7 +1968,7 @@
       <c r="C9" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="18" t="s">
         <v>153</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="C10" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="18" t="s">
         <v>156</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="C11" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="18" t="s">
         <v>157</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="C12" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="18"/>
       <c r="F12" s="13" t="s">
         <v>159</v>
@@ -2150,7 +2150,7 @@
       <c r="C13" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="18" t="s">
         <v>163</v>
       </c>
@@ -2181,7 +2181,7 @@
       <c r="C14" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="18" t="s">
         <v>142</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="C15" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="44" t="s">
         <v>167</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -2273,7 +2273,7 @@
       <c r="C16" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="18" t="s">
         <v>169</v>
       </c>
@@ -2332,8 +2332,8 @@
       <c r="C17" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="58" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="50" t="s">
         <v>170</v>
       </c>
       <c r="F17" s="13"/>
@@ -2391,8 +2391,8 @@
       <c r="C18" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="13"/>
       <c r="G18" s="19" t="s">
         <v>221</v>
@@ -2448,7 +2448,7 @@
       <c r="C19" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="62"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="18" t="s">
         <v>142</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="C20" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="44" t="s">
         <v>176</v>
       </c>
       <c r="E20" s="18"/>
@@ -2566,7 +2566,7 @@
       <c r="C21" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="18" t="s">
         <v>179</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="C22" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="61"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="18" t="s">
         <v>180</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="C23" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="18" t="s">
         <v>184</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="C24" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="18" t="s">
         <v>185</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="C25" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="62"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="18" t="s">
         <v>142</v>
       </c>
@@ -2805,7 +2805,7 @@
       <c r="C26" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E26" s="18" t="s">
@@ -2838,7 +2838,7 @@
       <c r="C27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="18" t="s">
         <v>224</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="C28" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="61"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="18" t="s">
         <v>194</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="C29" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="62"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="18" t="s">
         <v>142</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="C30" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="44" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="18"/>
@@ -3018,7 +3018,7 @@
       <c r="C31" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="18"/>
       <c r="F31" s="13"/>
       <c r="G31" s="19" t="s">
@@ -3075,7 +3075,7 @@
       <c r="C32" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="44" t="s">
         <v>204</v>
       </c>
       <c r="E32" s="18"/>
@@ -3120,7 +3120,7 @@
       <c r="C33" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="61"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="18"/>
       <c r="F33" s="13"/>
       <c r="G33" s="19" t="s">
@@ -3177,7 +3177,7 @@
       <c r="C34" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="62"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="18"/>
       <c r="F34" s="13"/>
       <c r="G34" s="19" t="s">
@@ -4235,11 +4235,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="D20:D25"/>
@@ -4253,16 +4258,11 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
